--- a/output_stats_2010-2017.xlsx
+++ b/output_stats_2010-2017.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="148">
   <si>
     <t>Address Type</t>
   </si>
@@ -310,12 +310,165 @@
   </si>
   <si>
     <t xml:space="preserve">   60076-102</t>
+  </si>
+  <si>
+    <t>COLUMN_NAME</t>
+  </si>
+  <si>
+    <t>numNull</t>
+  </si>
+  <si>
+    <t>Unique Key</t>
+  </si>
+  <si>
+    <t>Created Date</t>
+  </si>
+  <si>
+    <t>Closed Date</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Agency Name</t>
+  </si>
+  <si>
+    <t>Complaint Type</t>
+  </si>
+  <si>
+    <t>Descriptor</t>
+  </si>
+  <si>
+    <t>Location Type</t>
+  </si>
+  <si>
+    <t>Incident Address</t>
+  </si>
+  <si>
+    <t>Street Name</t>
+  </si>
+  <si>
+    <t>Cross Street 1</t>
+  </si>
+  <si>
+    <t>Cross Street 2</t>
+  </si>
+  <si>
+    <t>Intersection Street 1</t>
+  </si>
+  <si>
+    <t>Intersection Street 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   City</t>
+  </si>
+  <si>
+    <t>Landmark</t>
+  </si>
+  <si>
+    <t>Facility Type</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Resolution Action Updated Date</t>
+  </si>
+  <si>
+    <t>Borough</t>
+  </si>
+  <si>
+    <t>X Coordinate (State Plane)</t>
+  </si>
+  <si>
+    <t>Y Coordinate (State Plane)</t>
+  </si>
+  <si>
+    <t>Park Facility Name</t>
+  </si>
+  <si>
+    <t>Park Borough</t>
+  </si>
+  <si>
+    <t>School Name</t>
+  </si>
+  <si>
+    <t>School Number</t>
+  </si>
+  <si>
+    <t>School Region</t>
+  </si>
+  <si>
+    <t>School Code</t>
+  </si>
+  <si>
+    <t>School Phone Number</t>
+  </si>
+  <si>
+    <t>School Address</t>
+  </si>
+  <si>
+    <t>School City</t>
+  </si>
+  <si>
+    <t>School State</t>
+  </si>
+  <si>
+    <t>School Zip</t>
+  </si>
+  <si>
+    <t>School Not Found</t>
+  </si>
+  <si>
+    <t>School or Citywide Complaint</t>
+  </si>
+  <si>
+    <t>Vehicle Type</t>
+  </si>
+  <si>
+    <t>Taxi Company Borough</t>
+  </si>
+  <si>
+    <t>Taxi Pick Up Location</t>
+  </si>
+  <si>
+    <t>Bridge Highway Name</t>
+  </si>
+  <si>
+    <t>Bridge Highway Direction</t>
+  </si>
+  <si>
+    <t>Road Ramp</t>
+  </si>
+  <si>
+    <t>Bridge Highway Segment</t>
+  </si>
+  <si>
+    <t>Garage Lot Name</t>
+  </si>
+  <si>
+    <t>Ferry Direction</t>
+  </si>
+  <si>
+    <t>Ferry Terminal Name</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -863,7 +1016,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -884,6 +1037,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -929,7 +1085,115 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="56">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -946,6 +1210,74 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -961,6 +1293,74 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -976,6 +1376,74 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -991,6 +1459,74 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1006,6 +1542,74 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1021,6 +1625,74 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1036,6 +1708,74 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1051,6 +1791,36 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1066,532 +1836,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1618,9 +1862,9 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="49"/>
-      <tableStyleElement type="headerRow" dxfId="48"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="55"/>
+      <tableStyleElement type="headerRow" dxfId="54"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1635,88 +1879,99 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="46" tableBorderDxfId="47" totalsRowBorderDxfId="45">
-  <autoFilter ref="A1:B7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51" totalsRowBorderDxfId="50">
+  <autoFilter ref="A1:B7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Address Type" dataDxfId="7"/>
-    <tableColumn id="2" name="   count" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Address Type" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="   count" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A9:B29" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="41" tableBorderDxfId="42" totalsRowBorderDxfId="40">
-  <autoFilter ref="A9:B29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A9:B29" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
+  <autoFilter ref="A9:B29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="       Location Type" dataDxfId="6"/>
-    <tableColumn id="2" name="count" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="       Location Type" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="count" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A32:B52" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="36" tableBorderDxfId="37" totalsRowBorderDxfId="35">
-  <autoFilter ref="A32:B52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A32:B52" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" totalsRowBorderDxfId="38">
+  <autoFilter ref="A32:B52" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="        Created Date" dataDxfId="5"/>
-    <tableColumn id="2" name="count" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="        Created Date" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="count" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A55:B75" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="31" tableBorderDxfId="32" totalsRowBorderDxfId="30">
-  <autoFilter ref="A55:B75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A55:B75" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+  <autoFilter ref="A55:B75" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="      Complaint Type" dataDxfId="4"/>
-    <tableColumn id="2" name="count" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="      Complaint Type" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="count" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A77:B78" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="26" tableBorderDxfId="27" totalsRowBorderDxfId="25">
-  <autoFilter ref="A77:B78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table6" displayName="Table6" ref="A77:B78" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A77:B78" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Community Board" dataDxfId="3"/>
-    <tableColumn id="2" name="count" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Community Board" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="count" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A81:B90" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="21" tableBorderDxfId="22" totalsRowBorderDxfId="20">
-  <autoFilter ref="A81:B90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A81:B90" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+  <autoFilter ref="A81:B90" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="    Agency" dataDxfId="2"/>
-    <tableColumn id="2" name="count" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="    Agency" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="count" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A93:B94" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
-  <autoFilter ref="A93:B94"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table8" displayName="Table8" ref="A93:B94" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A93:B94" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="    Borough" dataDxfId="1"/>
-    <tableColumn id="2" name="  count" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="    Borough" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="  count" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A97:B117" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
-  <autoFilter ref="A97:B117"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table9" displayName="Table9" ref="A97:B117" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A97:B117" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Incident Zip" dataDxfId="0"/>
-    <tableColumn id="2" name="count" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Incident Zip" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="count" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4417C552-BEB1-4DF8-A75B-B810346B030A}" name="Table16" displayName="Table16" ref="A120:B172" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+  <autoFilter ref="A120:B172" xr:uid="{7E6E1B67-FFA8-41F8-A586-89EC20DB8D46}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C6CAEA77-CEDF-4652-96C3-51D3A8066EF4}" name="COLUMN_NAME" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{8DE5B0CA-6B59-4AD7-8019-C3E021289C34}" name="numNull" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2018,11 +2273,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A120" sqref="A120:B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2871,9 +3126,433 @@
         <v>1</v>
       </c>
     </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B123" s="2">
+        <v>572416</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B124" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B126" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B127" s="2">
+        <v>170053</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B128" s="2">
+        <v>4295032</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B129" s="2">
+        <v>1155074</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B130" s="2">
+        <v>3659170</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B131" s="2">
+        <v>3660061</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B132" s="2">
+        <v>5127806</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B133" s="2">
+        <v>5194110</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B134" s="2">
+        <v>13984515</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B135" s="2">
+        <v>13988712</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" s="2">
+        <v>783988</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B137" s="2">
+        <v>1149498</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B138" s="2">
+        <v>16561518</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B139" s="2">
+        <v>12405553</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B140" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B141" s="2">
+        <v>9727725</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B142" s="2">
+        <v>347639</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B144" s="2">
+        <v>1351125</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B146" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B147" s="2">
+        <v>16463859</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B148" s="2">
+        <v>1351125</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B149" s="2">
+        <v>16463859</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B150" s="2">
+        <v>16467519</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B151" s="2">
+        <v>16555204</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B152" s="2">
+        <v>16555201</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B153" s="2">
+        <v>16463859</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B154" s="2">
+        <v>16463868</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B155" s="2">
+        <v>16463859</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B156" s="2">
+        <v>16463859</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B157" s="2">
+        <v>16463860</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B158" s="2">
+        <v>9817782</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B159" s="2">
+        <v>16567814</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B160" s="2">
+        <v>16562565</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B161" s="2">
+        <v>16555506</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B162" s="2">
+        <v>16444161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B163" s="2">
+        <v>16525826</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B164" s="2">
+        <v>16525886</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B165" s="2">
+        <v>16526271</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B166" s="2">
+        <v>16516691</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B167" s="2">
+        <v>16565107</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B168" s="2">
+        <v>16566332</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B169" s="2">
+        <v>16556322</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B170" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B171" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B172" s="3">
+        <v>1751520</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="8">
+  <tableParts count="9">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -2882,6 +3561,7 @@
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>